--- a/data/nearby_fileinfo.xlsx
+++ b/data/nearby_fileinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="0" windowWidth="34780" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="29020" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="290">
   <si>
     <t>path</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>irac4e</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/reduc/co10/msc/export/</t>
   </si>
   <si>
     <t>n</t>
@@ -940,8 +937,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1046,7 +1045,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1093,7 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1141,6 +1141,7 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1474,7 +1475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1495,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1516,30 +1517,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -1555,30 +1556,30 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -1594,108 +1595,108 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2">
         <v>1.66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2">
         <v>1.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -1709,30 +1710,30 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1746,319 +1747,319 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F9" s="2">
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F10" s="2">
         <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F11" s="2">
         <v>5.6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F12" s="2">
         <v>6.8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F13" s="2">
         <v>11.4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="2">
         <v>18.2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F15" s="2">
         <v>24.9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="2">
         <v>36.299999999999997</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2075,335 +2076,308 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F18" s="2">
         <v>-1</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F20" s="2">
         <v>-1</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>-1</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F22" s="2">
         <v>-1</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F23" s="2">
         <v>-1</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2">
         <v>-1</v>
@@ -2413,133 +2387,136 @@
         <v>93</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2">
         <v>-1</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2">
         <v>-1</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2">
         <v>-1</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2">
         <v>-1</v>
@@ -2549,159 +2526,156 @@
         <v>93</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2">
         <v>-1</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="B33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-1</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="K33" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
@@ -2711,476 +2685,481 @@
         <v>93</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="F37" s="2">
         <v>-1</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="M38" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="14" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="K39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="B40" s="2"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="2">
-        <v>5.3</v>
-      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2">
         <v>5.3</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2">
         <v>4.3</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="14" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>257</v>
+        <v>92</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="B47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1">
         <v>-1</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>93</v>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F50" s="1">
         <v>-1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
         <v>-1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>284</v>
@@ -3188,464 +3167,464 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F52" s="1">
         <v>-1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F53" s="1">
         <v>-1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1">
-        <v>6.8</v>
+        <v>-1</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F56" s="1">
-        <v>18.2</v>
+        <v>11.4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F57" s="1">
-        <v>24.9</v>
+        <v>18.2</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F58" s="1">
-        <v>36.299999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1">
-        <v>6.8</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F60" s="1">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F61" s="1">
-        <v>18.2</v>
+        <v>11.4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F62" s="1">
-        <v>24.9</v>
+        <v>18.2</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F63" s="1">
-        <v>36.299999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F64" s="1">
-        <v>-1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F65" s="1">
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F66" s="1">
         <v>-1</v>
@@ -3654,62 +3633,62 @@
         <v>93</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1">
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F68" s="1">
         <v>-1</v>
@@ -3718,109 +3697,109 @@
         <v>93</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F69" s="1">
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="F70" s="1">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F71" s="1">
         <v>41</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>282</v>
@@ -3828,448 +3807,452 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F72" s="1">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="F73" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F74" s="1">
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F75" s="1">
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F76" s="1">
         <v>-1</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>240</v>
+      <c r="H76" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="F77" s="1">
-        <v>40</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>93</v>
+        <v>-1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F79" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="F80" s="1">
-        <v>1.98</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F81" s="1">
         <v>1.98</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F82" s="1">
-        <v>-1</v>
+        <v>1.98</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F83" s="1">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="1">
+        <v>41</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="1">
+        <v>48</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="1">
-        <v>48</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="B85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="F86" s="1">
         <v>45</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="B87" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F87" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>215</v>
+      <c r="I86" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2">
         <v>-1</v>
@@ -4277,27 +4260,27 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2">
         <v>-1</v>
@@ -4305,27 +4288,27 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2">
         <v>-1</v>
@@ -4333,27 +4316,27 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2">
         <v>-1</v>
@@ -4361,27 +4344,27 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2">
         <v>-1</v>
@@ -4389,27 +4372,27 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2">
         <v>-1</v>
@@ -4417,27 +4400,27 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2">
         <v>-1</v>
@@ -4445,27 +4428,27 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="B95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2">
         <v>-1</v>
@@ -4473,25 +4456,25 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F96" s="2">
         <v>-1</v>
@@ -4499,25 +4482,25 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F97" s="2">
         <v>-1</v>
@@ -4525,25 +4508,25 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F98" s="2">
         <v>-1</v>
@@ -4551,85 +4534,85 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F99" s="2">
         <v>-1</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F100" s="2">
         <v>-1</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F101" s="2">
         <v>-1</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4639,122 +4622,122 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="K102" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="B103" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F103" s="1">
         <v>-1</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F104" s="1">
         <v>-1</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F105" s="1">
         <v>-1</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F106" s="1">
         <v>-1</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="K107" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4766,231 +4749,231 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F109" s="1">
         <v>-1</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F110" s="1">
         <v>-1</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F111" s="1">
         <v>-1</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F112" s="1">
         <v>-1</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="F113" s="1">
         <v>-1</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F114" s="1">
         <v>-1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F115" s="1">
         <v>-1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F116" s="1">
         <v>24.9</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F117" s="1">
         <v>6</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F118" s="1">
         <v>6</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F119" s="1">
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/nearby_fileinfo.xlsx
+++ b/data/nearby_fileinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="29020" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="298">
   <si>
     <t>path</t>
   </si>
@@ -153,27 +153,6 @@
     <t>conte</t>
   </si>
   <si>
-    <t>/Users/Rui/Workspace/sting/himom_sim/</t>
-  </si>
-  <si>
-    <t>him.sgm.mom0</t>
-  </si>
-  <si>
-    <t>him</t>
-  </si>
-  <si>
-    <t>himlow.sgm.mom0</t>
-  </si>
-  <si>
-    <t>himlow</t>
-  </si>
-  <si>
-    <t>himhigh.sgm.mom0</t>
-  </si>
-  <si>
-    <t>himhigh</t>
-  </si>
-  <si>
     <t>ngc</t>
   </si>
   <si>
@@ -889,6 +868,51 @@
   </si>
   <si>
     <t>nearby-r</t>
+  </si>
+  <si>
+    <t>/Users/Rui/Workspace/sting/nearby-mhi/</t>
+  </si>
+  <si>
+    <t>.mhico.line.cm.sgm.mom0</t>
+  </si>
+  <si>
+    <t>.mhi_lowco.line.cm.sgm.mom0</t>
+  </si>
+  <si>
+    <t>mhico</t>
+  </si>
+  <si>
+    <t>mhicolow</t>
+  </si>
+  <si>
+    <t>mhicohigh</t>
+  </si>
+  <si>
+    <t>mhico21</t>
+  </si>
+  <si>
+    <t>mhico21low</t>
+  </si>
+  <si>
+    <t>mhico21high</t>
+  </si>
+  <si>
+    <t>.mhi.co21.mom0</t>
+  </si>
+  <si>
+    <t>.mhi_low.co21.mom0</t>
+  </si>
+  <si>
+    <t>.mhi_high.co21.mom0</t>
+  </si>
+  <si>
+    <t>.mhi_highco.line.cm.sgm.mom0</t>
+  </si>
+  <si>
+    <t>hi_at</t>
+  </si>
+  <si>
+    <t>hie_at</t>
   </si>
 </sst>
 </file>
@@ -937,8 +961,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1045,7 +1083,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1132,13 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1142,6 +1187,13 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,11 +1523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1496,7 +1548,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1517,30 +1569,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -1556,30 +1608,30 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -1595,108 +1647,108 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2">
         <v>1.66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2">
         <v>1.66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -1710,30 +1762,30 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1747,319 +1799,319 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2">
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2">
         <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2">
         <v>5.6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F12" s="2">
         <v>6.8</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2">
         <v>11.4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2">
         <v>18.2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2">
         <v>24.9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2">
         <v>36.299999999999997</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2076,10 +2128,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -2093,30 +2145,30 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -2130,30 +2182,30 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -2167,27 +2219,27 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -2201,27 +2253,27 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -2235,27 +2287,27 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -2269,53 +2321,53 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2">
         <v>-1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2330,10 +2382,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -2347,30 +2399,30 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -2384,30 +2436,30 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -2421,27 +2473,27 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -2455,27 +2507,27 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -2489,27 +2541,27 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -2523,27 +2575,27 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -2557,30 +2609,30 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -2594,22 +2646,22 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2623,223 +2675,223 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2">
         <v>-1</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F36" s="2">
         <v>-1</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F37" s="2">
         <v>-1</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2856,206 +2908,206 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2">
         <v>5.3</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2">
         <v>5.3</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2">
         <v>4.3</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2">
         <v>4.3</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3071,1188 +3123,1188 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F49" s="1">
         <v>-1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F50" s="1">
         <v>-1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="F51" s="1">
         <v>-1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F52" s="1">
         <v>-1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1">
         <v>-1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="F54" s="1">
         <v>-1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F55" s="1">
         <v>6.8</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F56" s="1">
         <v>11.4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1">
         <v>18.2</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F58" s="1">
         <v>24.9</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1">
         <v>36.299999999999997</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F60" s="1">
         <v>6.8</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F61" s="1">
         <v>11.4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F62" s="1">
         <v>18.2</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F63" s="1">
         <v>24.9</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F64" s="1">
         <v>36.299999999999997</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F65" s="1">
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1">
         <v>-1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F67" s="1">
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F68" s="1">
         <v>-1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F69" s="1">
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F70" s="1">
         <v>-1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F71" s="1">
         <v>41</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F72" s="1">
         <v>41</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F74" s="1">
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F75" s="1">
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F76" s="1">
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F77" s="1">
         <v>-1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F78" s="1">
         <v>40</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F79" s="1">
         <v>18</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F80" s="1">
         <v>6</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F81" s="1">
         <v>1.98</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F82" s="1">
         <v>1.98</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F83" s="1">
         <v>-1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F84" s="1">
         <v>41</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F85" s="1">
         <v>48</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="B86" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F86" s="1">
         <v>45</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2">
         <v>-1</v>
@@ -4260,27 +4312,27 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2">
         <v>-1</v>
@@ -4288,27 +4340,27 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2">
         <v>-1</v>
@@ -4316,27 +4368,27 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2">
         <v>-1</v>
@@ -4344,27 +4396,27 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2">
         <v>-1</v>
@@ -4372,27 +4424,27 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2">
         <v>-1</v>
@@ -4400,27 +4452,27 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2">
         <v>-1</v>
@@ -4428,27 +4480,27 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2">
         <v>-1</v>
@@ -4456,25 +4508,25 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="F96" s="2">
         <v>-1</v>
@@ -4482,25 +4534,25 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="F97" s="2">
         <v>-1</v>
@@ -4508,25 +4560,25 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="F98" s="2">
         <v>-1</v>
@@ -4534,446 +4586,524 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="F99" s="2">
         <v>-1</v>
       </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="F100" s="2">
         <v>-1</v>
       </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="F101" s="2">
         <v>-1</v>
       </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="K102" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="2">
         <v>-1</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="B104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F104" s="1">
+      <c r="B104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="2">
         <v>-1</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="B105" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F106" s="1">
         <v>-1</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="B108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F107" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="F109" s="1">
         <v>-1</v>
       </c>
+      <c r="I109" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K109" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="B110" s="1" t="s">
-        <v>215</v>
+        <v>134</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="F110" s="1">
         <v>-1</v>
       </c>
+      <c r="I110" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K110" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F111" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F112" s="1">
         <v>-1</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F113" s="1">
         <v>-1</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F115" s="1">
         <v>-1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="F116" s="1">
-        <v>24.9</v>
+        <v>-1</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="F117" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F118" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F119" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="1">
         <v>6</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>234</v>
+      <c r="K120" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" s="1">
+        <v>6</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122" s="1">
+        <v>6</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/nearby_fileinfo.xlsx
+++ b/data/nearby_fileinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="302">
   <si>
     <t>path</t>
   </si>
@@ -588,9 +588,6 @@
     <t>hi3d</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/21cm/gass/</t>
-  </si>
-  <si>
     <t>_gass</t>
   </si>
   <si>
@@ -913,6 +910,21 @@
   </si>
   <si>
     <t>hie_at</t>
+  </si>
+  <si>
+    <t>_IRAC4.5_resid</t>
+  </si>
+  <si>
+    <t>irac4res</t>
+  </si>
+  <si>
+    <t>_IRAC3.6_resid</t>
+  </si>
+  <si>
+    <t>irac2res</t>
+  </si>
+  <si>
+    <t>irac1res</t>
   </si>
 </sst>
 </file>
@@ -961,8 +973,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1083,7 +1123,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1139,6 +1179,20 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1194,6 +1248,20 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1523,11 +1591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1548,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1575,24 +1643,24 @@
         <v>82</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -1617,21 +1685,21 @@
         <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -1656,21 +1724,21 @@
         <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -1695,21 +1763,21 @@
         <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -1734,21 +1802,21 @@
         <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -1771,21 +1839,21 @@
         <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1808,18 +1876,18 @@
         <v>90</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>120</v>
@@ -1844,15 +1912,15 @@
         <v>122</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>120</v>
@@ -1877,15 +1945,15 @@
         <v>122</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>120</v>
@@ -1910,15 +1978,15 @@
         <v>122</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>121</v>
@@ -1943,15 +2011,15 @@
         <v>122</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>121</v>
@@ -1976,15 +2044,15 @@
         <v>122</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>121</v>
@@ -2009,15 +2077,15 @@
         <v>122</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>121</v>
@@ -2042,15 +2110,15 @@
         <v>122</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>121</v>
@@ -2075,15 +2143,15 @@
         <v>122</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>121</v>
@@ -2108,10 +2176,10 @@
         <v>122</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2128,10 +2196,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -2151,24 +2219,24 @@
         <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -2188,24 +2256,24 @@
         <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -2225,21 +2293,21 @@
         <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -2259,21 +2327,21 @@
         <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -2293,21 +2361,21 @@
         <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -2327,21 +2395,21 @@
         <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -2361,13 +2429,13 @@
         <v>91</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2382,10 +2450,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -2405,24 +2473,24 @@
         <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -2442,24 +2510,24 @@
         <v>91</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -2479,21 +2547,21 @@
         <v>91</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -2513,21 +2581,21 @@
         <v>91</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -2547,21 +2615,21 @@
         <v>91</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -2581,21 +2649,21 @@
         <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -2615,24 +2683,24 @@
         <v>91</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -2652,16 +2720,16 @@
         <v>91</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2675,19 +2743,19 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>111</v>
@@ -2703,28 +2771,28 @@
         <v>123</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>112</v>
@@ -2740,28 +2808,28 @@
         <v>123</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>124</v>
@@ -2777,31 +2845,31 @@
         <v>125</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
@@ -2814,84 +2882,84 @@
         <v>125</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="K39" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="K40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2908,10 +2976,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -2931,21 +2999,21 @@
         <v>83</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -2965,21 +3033,21 @@
         <v>83</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -2999,21 +3067,21 @@
         <v>83</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -3033,18 +3101,18 @@
         <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>72</v>
@@ -3067,18 +3135,18 @@
         <v>92</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>72</v>
@@ -3101,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3123,7 +3191,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>139</v>
@@ -3141,21 +3209,21 @@
         <v>85</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>139</v>
@@ -3173,21 +3241,21 @@
         <v>85</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>139</v>
@@ -3196,7 +3264,7 @@
         <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F51" s="1">
         <v>-1</v>
@@ -3205,21 +3273,21 @@
         <v>85</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>139</v>
@@ -3237,21 +3305,21 @@
         <v>86</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>139</v>
@@ -3269,21 +3337,21 @@
         <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>139</v>
@@ -3292,7 +3360,7 @@
         <v>149</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F54" s="1">
         <v>-1</v>
@@ -3301,21 +3369,21 @@
         <v>86</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>150</v>
@@ -3333,21 +3401,21 @@
         <v>85</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>150</v>
@@ -3365,21 +3433,21 @@
         <v>85</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>150</v>
@@ -3397,21 +3465,21 @@
         <v>85</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>150</v>
@@ -3429,21 +3497,21 @@
         <v>85</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>150</v>
@@ -3461,21 +3529,21 @@
         <v>85</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>150</v>
@@ -3493,21 +3561,21 @@
         <v>86</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>150</v>
@@ -3525,21 +3593,21 @@
         <v>86</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>150</v>
@@ -3557,21 +3625,21 @@
         <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>150</v>
@@ -3589,21 +3657,21 @@
         <v>86</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>150</v>
@@ -3621,21 +3689,21 @@
         <v>86</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>166</v>
@@ -3653,21 +3721,21 @@
         <v>85</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>166</v>
@@ -3685,21 +3753,21 @@
         <v>86</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>166</v>
@@ -3717,21 +3785,21 @@
         <v>85</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>166</v>
@@ -3749,21 +3817,21 @@
         <v>86</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>166</v>
@@ -3781,21 +3849,21 @@
         <v>85</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>166</v>
@@ -3813,21 +3881,21 @@
         <v>85</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>179</v>
@@ -3836,7 +3904,7 @@
         <v>180</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F71" s="1">
         <v>41</v>
@@ -3845,21 +3913,21 @@
         <v>85</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>179</v>
@@ -3868,7 +3936,7 @@
         <v>181</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" s="1">
         <v>41</v>
@@ -3877,21 +3945,21 @@
         <v>85</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>139</v>
@@ -3900,7 +3968,7 @@
         <v>182</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
@@ -3909,21 +3977,21 @@
         <v>85</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>139</v>
@@ -3938,24 +4006,24 @@
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>139</v>
@@ -3970,21 +4038,21 @@
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>139</v>
@@ -3999,56 +4067,56 @@
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F77" s="1">
         <v>-1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>98</v>
@@ -4060,24 +4128,24 @@
         <v>85</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>96</v>
@@ -4089,24 +4157,24 @@
         <v>85</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>94</v>
@@ -4118,27 +4186,27 @@
         <v>85</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="F81" s="1">
         <v>1.98</v>
@@ -4147,206 +4215,208 @@
         <v>85</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F82" s="1">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="F84" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F85" s="1">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:11">
+      <c r="A86" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="B86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="1">
+        <v>41</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" s="1">
+        <v>48</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="F88" s="1">
         <v>45</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="B88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F88" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="I88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J88" s="2"/>
       <c r="K88" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="B89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4357,10 +4427,10 @@
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2">
         <v>-1</v>
@@ -4371,10 +4441,10 @@
         <v>89</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4385,10 +4455,10 @@
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2">
         <v>-1</v>
@@ -4399,10 +4469,10 @@
         <v>89</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4413,10 +4483,10 @@
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2">
         <v>-1</v>
@@ -4427,10 +4497,10 @@
         <v>89</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4441,10 +4511,10 @@
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2">
         <v>-1</v>
@@ -4455,10 +4525,10 @@
         <v>89</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4469,10 +4539,10 @@
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2">
         <v>-1</v>
@@ -4483,10 +4553,10 @@
         <v>89</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4497,10 +4567,10 @@
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2">
         <v>-1</v>
@@ -4511,22 +4581,24 @@
         <v>89</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2">
         <v>-1</v>
@@ -4537,22 +4609,24 @@
         <v>89</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
       <c r="B97" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D97" s="2" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2">
         <v>-1</v>
@@ -4563,22 +4637,22 @@
         <v>89</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
       <c r="B98" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F98" s="2">
         <v>-1</v>
@@ -4589,22 +4663,22 @@
         <v>89</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
       <c r="B99" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F99" s="2">
         <v>-1</v>
@@ -4615,22 +4689,22 @@
         <v>89</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
       <c r="B100" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F100" s="2">
         <v>-1</v>
@@ -4641,22 +4715,22 @@
         <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
       <c r="B101" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F101" s="2">
         <v>-1</v>
@@ -4667,70 +4741,74 @@
         <v>89</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="F102" s="2">
         <v>-1</v>
       </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="F103" s="2">
         <v>-1</v>
       </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
       <c r="B104" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2">
         <v>-1</v>
@@ -4739,80 +4817,82 @@
         <v>89</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="B105" s="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="K105" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="B106" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="B107" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="B108" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F108" s="1">
         <v>-1</v>
@@ -4821,21 +4901,21 @@
         <v>138</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
       <c r="B109" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F109" s="1">
         <v>-1</v>
@@ -4844,21 +4924,21 @@
         <v>138</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
       <c r="B110" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F110" s="1">
         <v>-1</v>
@@ -4867,243 +4947,289 @@
         <v>138</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
       <c r="B112" s="1" t="s">
-        <v>208</v>
+        <v>134</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="F112" s="1">
         <v>-1</v>
       </c>
+      <c r="I112" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K112" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F113" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F114" s="1">
         <v>-1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F115" s="1">
         <v>-1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F116" s="1">
         <v>-1</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F117" s="1">
         <v>-1</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F118" s="1">
         <v>-1</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="F119" s="1">
-        <v>24.9</v>
+        <v>-1</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="F120" s="1">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="F121" s="1">
-        <v>6</v>
+        <v>24.9</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F122" s="1">
         <v>6</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" s="1">
+        <v>6</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" s="1">
+        <v>6</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/nearby_fileinfo.xlsx
+++ b/data/nearby_fileinfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="6820" yWindow="740" windowWidth="26880" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="300">
   <si>
     <t>path</t>
   </si>
@@ -381,12 +381,6 @@
     <t>x_high</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/mips/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/herschel/</t>
-  </si>
-  <si>
     <t>herschel</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>msc_test</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/magclouds/gasmap/</t>
-  </si>
-  <si>
     <t>.co_nanten.cm.sm.mom0</t>
   </si>
   <si>
@@ -558,9 +549,6 @@
     <t>higass_mw_mom1</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/magclouds/sagemap/</t>
-  </si>
-  <si>
     <t>_MIPS24_GAUSS41</t>
   </si>
   <si>
@@ -705,15 +693,6 @@
     <t>magclouds</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/irac1/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/irac2/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/irac4/</t>
-  </si>
-  <si>
     <t>3d</t>
   </si>
   <si>
@@ -729,18 +708,6 @@
     <t>ha_shassa</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/sting/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/heracles/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/things/</t>
-  </si>
-  <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/galex/</t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
@@ -795,9 +762,6 @@
     <t>MAGMA</t>
   </si>
   <si>
-    <t>/Volumes/Scratch/data_repo/projects/nearby/paws/</t>
-  </si>
-  <si>
     <t>co_paws</t>
   </si>
   <si>
@@ -867,45 +831,6 @@
     <t>nearby-r</t>
   </si>
   <si>
-    <t>/Users/Rui/Workspace/sting/nearby-mhi/</t>
-  </si>
-  <si>
-    <t>.mhico.line.cm.sgm.mom0</t>
-  </si>
-  <si>
-    <t>.mhi_lowco.line.cm.sgm.mom0</t>
-  </si>
-  <si>
-    <t>mhico</t>
-  </si>
-  <si>
-    <t>mhicolow</t>
-  </si>
-  <si>
-    <t>mhicohigh</t>
-  </si>
-  <si>
-    <t>mhico21</t>
-  </si>
-  <si>
-    <t>mhico21low</t>
-  </si>
-  <si>
-    <t>mhico21high</t>
-  </si>
-  <si>
-    <t>.mhi.co21.mom0</t>
-  </si>
-  <si>
-    <t>.mhi_low.co21.mom0</t>
-  </si>
-  <si>
-    <t>.mhi_high.co21.mom0</t>
-  </si>
-  <si>
-    <t>.mhi_highco.line.cm.sgm.mom0</t>
-  </si>
-  <si>
     <t>hi_at</t>
   </si>
   <si>
@@ -925,6 +850,75 @@
   </si>
   <si>
     <t>irac1res</t>
+  </si>
+  <si>
+    <t>/Users/Rui/Workspace/magclouds/products/sagemap/</t>
+  </si>
+  <si>
+    <t>_IRAC3.6_mosaic</t>
+  </si>
+  <si>
+    <t>irac1mos</t>
+  </si>
+  <si>
+    <t>irac2mos</t>
+  </si>
+  <si>
+    <t>_IRAC4.5_mosaic</t>
+  </si>
+  <si>
+    <t>/Users/Rui/Workspace/magclouds/products/gasmap/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/irac1/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/irac2/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/irac4/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/mips/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/herschel/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/sting/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/heracles/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/things/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/paws/</t>
+  </si>
+  <si>
+    <t>~/Workspace/nearby/products/galex/</t>
+  </si>
+  <si>
+    <t>/Users/Rui/Workspace/nearby/reduc/nearby-sim/</t>
+  </si>
+  <si>
+    <t>co_mhi</t>
+  </si>
+  <si>
+    <t>co.line.cm.sgm.mom0.mhi</t>
+  </si>
+  <si>
+    <t>co21_mhi</t>
+  </si>
+  <si>
+    <t>.co_magma.cm.sm.mom0.mhi</t>
+  </si>
+  <si>
+    <t>co_magma_mhi</t>
+  </si>
+  <si>
+    <t>.co21.mom0.mhi</t>
   </si>
 </sst>
 </file>
@@ -973,8 +967,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,7 +1127,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1193,6 +1197,11 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1262,6 +1271,11 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1591,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1616,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1643,24 +1657,24 @@
         <v>82</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -1685,21 +1699,21 @@
         <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -1724,21 +1738,21 @@
         <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -1763,21 +1777,21 @@
         <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -1802,21 +1816,21 @@
         <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -1839,21 +1853,21 @@
         <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -1876,21 +1890,21 @@
         <v>90</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -1906,24 +1920,24 @@
         <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -1939,24 +1953,24 @@
         <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -1972,24 +1986,24 @@
         <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -2005,24 +2019,24 @@
         <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
@@ -2038,24 +2052,24 @@
         <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -2071,24 +2085,24 @@
         <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -2104,24 +2118,24 @@
         <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -2137,24 +2151,24 @@
         <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -2170,16 +2184,16 @@
         <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2196,10 +2210,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -2219,24 +2233,24 @@
         <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -2256,24 +2270,24 @@
         <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -2293,21 +2307,21 @@
         <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -2327,21 +2341,21 @@
         <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -2361,21 +2375,21 @@
         <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -2395,21 +2409,21 @@
         <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -2429,13 +2443,13 @@
         <v>91</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2450,10 +2464,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -2473,24 +2487,24 @@
         <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -2510,24 +2524,24 @@
         <v>91</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -2547,21 +2561,21 @@
         <v>91</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -2581,21 +2595,21 @@
         <v>91</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -2615,21 +2629,21 @@
         <v>91</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -2649,21 +2663,21 @@
         <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -2683,24 +2697,24 @@
         <v>91</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -2720,16 +2734,16 @@
         <v>91</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2743,19 +2757,19 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>111</v>
@@ -2768,31 +2782,31 @@
         <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>112</v>
@@ -2805,34 +2819,34 @@
         <v>86</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2">
         <v>-1</v>
@@ -2842,34 +2856,34 @@
         <v>85</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F38" s="2">
         <v>-1</v>
@@ -2879,87 +2893,87 @@
         <v>86</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2976,10 +2990,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -2999,21 +3013,21 @@
         <v>83</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -3033,21 +3047,21 @@
         <v>83</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -3067,21 +3081,21 @@
         <v>83</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -3101,18 +3115,18 @@
         <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>72</v>
@@ -3135,18 +3149,18 @@
         <v>92</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>72</v>
@@ -3169,13 +3183,13 @@
         <v>92</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3191,16 +3205,16 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F49" s="1">
         <v>-1</v>
@@ -3209,30 +3223,30 @@
         <v>85</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1">
         <v>-1</v>
@@ -3241,30 +3255,30 @@
         <v>85</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F51" s="1">
         <v>-1</v>
@@ -3273,30 +3287,30 @@
         <v>85</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1">
         <v>-1</v>
@@ -3305,30 +3319,30 @@
         <v>86</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1">
         <v>-1</v>
@@ -3337,30 +3351,30 @@
         <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="F54" s="1">
         <v>-1</v>
@@ -3369,27 +3383,27 @@
         <v>86</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>102</v>
@@ -3401,27 +3415,27 @@
         <v>85</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>104</v>
@@ -3433,27 +3447,27 @@
         <v>85</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>106</v>
@@ -3465,27 +3479,27 @@
         <v>85</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>108</v>
@@ -3497,27 +3511,27 @@
         <v>85</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>110</v>
@@ -3529,30 +3543,30 @@
         <v>85</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F60" s="1">
         <v>6.8</v>
@@ -3561,30 +3575,30 @@
         <v>86</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F61" s="1">
         <v>11.4</v>
@@ -3593,30 +3607,30 @@
         <v>86</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1">
         <v>18.2</v>
@@ -3625,30 +3639,30 @@
         <v>86</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F63" s="1">
         <v>24.9</v>
@@ -3657,30 +3671,30 @@
         <v>86</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F64" s="1">
         <v>36.299999999999997</v>
@@ -3689,30 +3703,30 @@
         <v>86</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F65" s="1">
         <v>-1</v>
@@ -3721,30 +3735,30 @@
         <v>85</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F66" s="1">
         <v>-1</v>
@@ -3753,30 +3767,30 @@
         <v>86</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F67" s="1">
         <v>-1</v>
@@ -3785,30 +3799,30 @@
         <v>85</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F68" s="1">
         <v>-1</v>
@@ -3817,30 +3831,30 @@
         <v>86</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F69" s="1">
         <v>-1</v>
@@ -3849,30 +3863,30 @@
         <v>85</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F70" s="1">
         <v>-1</v>
@@ -3881,30 +3895,30 @@
         <v>85</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F71" s="1">
         <v>41</v>
@@ -3913,30 +3927,30 @@
         <v>85</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F72" s="1">
         <v>41</v>
@@ -3945,30 +3959,30 @@
         <v>85</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F73" s="1">
         <v>2</v>
@@ -3977,146 +3991,146 @@
         <v>85</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F74" s="1">
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F75" s="1">
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1">
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F77" s="1">
         <v>-1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>98</v>
@@ -4128,24 +4142,24 @@
         <v>85</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>96</v>
@@ -4157,24 +4171,24 @@
         <v>85</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>94</v>
@@ -4186,27 +4200,27 @@
         <v>85</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F81" s="1">
         <v>1.98</v>
@@ -4215,27 +4229,27 @@
         <v>85</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
@@ -4244,27 +4258,27 @@
         <v>85</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
@@ -4273,27 +4287,27 @@
         <v>85</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="F84" s="1">
         <v>2</v>
@@ -4302,177 +4316,179 @@
         <v>85</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="F85" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="F86" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="F87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" s="1">
+        <v>41</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="1">
         <v>48</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="B88" s="1" t="s">
+      <c r="H89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="B90" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F88" s="1">
+      <c r="D90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
         <v>45</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="B90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="I90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="B91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4483,10 +4499,10 @@
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2">
         <v>-1</v>
@@ -4497,10 +4513,10 @@
         <v>89</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4511,10 +4527,10 @@
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2">
         <v>-1</v>
@@ -4525,10 +4541,10 @@
         <v>89</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4539,10 +4555,10 @@
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2">
         <v>-1</v>
@@ -4553,10 +4569,10 @@
         <v>89</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4567,10 +4583,10 @@
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2">
         <v>-1</v>
@@ -4581,10 +4597,10 @@
         <v>89</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4595,10 +4611,10 @@
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2">
         <v>-1</v>
@@ -4609,10 +4625,10 @@
         <v>89</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -4623,10 +4639,10 @@
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2">
         <v>-1</v>
@@ -4637,22 +4653,24 @@
         <v>89</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D98" s="2" t="s">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2">
         <v>-1</v>
@@ -4663,22 +4681,24 @@
         <v>89</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2">
         <v>-1</v>
@@ -4689,22 +4709,22 @@
         <v>89</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F100" s="2">
         <v>-1</v>
@@ -4715,22 +4735,22 @@
         <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F101" s="2">
         <v>-1</v>
@@ -4741,22 +4761,22 @@
         <v>89</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F102" s="2">
         <v>-1</v>
@@ -4767,36 +4787,34 @@
         <v>89</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="2" t="s">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2">
         <v>-1</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
       <c r="I103" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -4805,10 +4823,10 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2">
         <v>-1</v>
@@ -4817,10 +4835,10 @@
         <v>89</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -4829,10 +4847,10 @@
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2">
         <v>-1</v>
@@ -4841,78 +4859,77 @@
         <v>89</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F106" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K107" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F108" s="1">
         <v>-1</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>131</v>
@@ -4921,10 +4938,10 @@
         <v>-1</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -4932,27 +4949,27 @@
         <v>132</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F110" s="1">
         <v>-1</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -4961,275 +4978,252 @@
         <v>135</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F111" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="K111" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F114" s="1">
         <v>-1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F115" s="1">
         <v>-1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F116" s="1">
         <v>-1</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F117" s="1">
         <v>-1</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F118" s="1">
         <v>-1</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F119" s="1">
         <v>-1</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F120" s="1">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F121" s="1">
-        <v>24.9</v>
+        <v>6</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="F122" s="1">
         <v>6</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F123" s="1">
         <v>6</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F124" s="1">
-        <v>6</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
